--- a/mesures_Ntester_Over_Season.xlsx
+++ b/mesures_Ntester_Over_Season.xlsx
@@ -14,12 +14,13 @@
   <sheets>
     <sheet name="SPAD_Meter_Meas" sheetId="1" r:id="rId1"/>
     <sheet name="20200615_Meas" sheetId="11" r:id="rId2"/>
-    <sheet name="Mean" sheetId="9" r:id="rId3"/>
-    <sheet name="Graph" sheetId="10" r:id="rId4"/>
+    <sheet name="20200630_Meas" sheetId="12" r:id="rId3"/>
+    <sheet name="Mean" sheetId="9" r:id="rId4"/>
+    <sheet name="Graph" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="70">
   <si>
     <t>Plot</t>
   </si>
@@ -162,6 +163,84 @@
   </si>
   <si>
     <t>15_06</t>
+  </si>
+  <si>
+    <t>30_06</t>
+  </si>
+  <si>
+    <t>SPAD_Meter_30_06</t>
+  </si>
+  <si>
+    <t>Leave_Dry</t>
+  </si>
+  <si>
+    <t>Untreated_Inoculation</t>
+  </si>
+  <si>
+    <t>Inoculant</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>CodeGenotypeAndInoculant</t>
+  </si>
+  <si>
+    <t>G3-M3</t>
+  </si>
+  <si>
+    <t>G3-M2</t>
+  </si>
+  <si>
+    <t>G2-M4</t>
+  </si>
+  <si>
+    <t>G1-M1</t>
+  </si>
+  <si>
+    <t>G2-M1</t>
+  </si>
+  <si>
+    <t>G1-M3</t>
+  </si>
+  <si>
+    <t>G3-M4</t>
+  </si>
+  <si>
+    <t>G1-M2</t>
+  </si>
+  <si>
+    <t>G3-M1</t>
+  </si>
+  <si>
+    <t>G1-M4</t>
+  </si>
+  <si>
+    <t>G2-M2</t>
+  </si>
+  <si>
+    <t>G2-M3</t>
+  </si>
+  <si>
+    <t>Paraburkholderia_phytofirmans_PsJN_3Re2-7_And_R_irregularis_MUCL_41833</t>
+  </si>
+  <si>
+    <t>P_brassicacearum_3Re2-7_And_R_irregularis_MUCL_41833</t>
+  </si>
+  <si>
+    <t>Kosakonia_sp_And_Herbaspirillum_sp_And_R_irregularis_MUCL_41833</t>
+  </si>
+  <si>
+    <t>Untreated</t>
   </si>
 </sst>
 </file>
@@ -1739,16 +1818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1757,7 +1836,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12516971" y="134470"/>
+          <a:off x="13391030" y="78441"/>
           <a:ext cx="5513294" cy="515471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1812,8 +1891,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>29135</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>10646</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1822,8 +1901,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="95250"/>
-          <a:ext cx="4639235" cy="515471"/>
+          <a:off x="9658350" y="95250"/>
+          <a:ext cx="4639235" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1856,6 +1935,67 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> meter (SPAD-502 plus) : Average of ten flag leaves by plot</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In column leave_Dry:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-&gt; 1 = cover with disease</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-&gt; 0 = no problematic disease covering </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1866,6 +2006,94 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="152400"/>
+          <a:ext cx="4914900" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Konica Minolta Spad</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> meter (SPAD-502 plus) : Average of ten flag leaves by plot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>In column leave_Dry:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>-&gt; 1 = dry</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>-&gt; 0 = dry but some leaves were green</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1903,7 +2131,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vuille-dit-Bille Nicolas AGROSCOPE" refreshedDate="43992.381278125002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="84">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I85" sheet="SPAD_Meter_Meas"/>
+    <worksheetSource ref="A1:M85" sheet="SPAD_Meter_Meas"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Plot" numFmtId="0">
@@ -3351,2986 +3579,4514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="2" max="5" width="11" style="5"/>
+    <col min="6" max="6" width="19" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
+    <col min="12" max="12" width="22.375" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4">
+      <c r="K2" s="4">
         <v>50.4</v>
       </c>
-      <c r="H2" s="2">
+      <c r="L2" s="2">
         <v>49.3</v>
       </c>
-      <c r="I2" s="2">
+      <c r="M2" s="2">
         <v>52.3</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4">
+      <c r="K3" s="4">
         <v>52.3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="L3" s="2">
         <v>58.6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="M3" s="2">
         <v>52.1</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4">
+      <c r="K4" s="4">
         <v>57.7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="L4" s="2">
         <v>57.3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="M4" s="2">
         <v>52</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4">
+      <c r="K5" s="4">
         <v>60.3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="L5" s="2">
         <v>59.5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="M5" s="2">
         <v>60.8</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4">
+      <c r="K6" s="4">
         <v>53.9</v>
       </c>
-      <c r="H6" s="2">
+      <c r="L6" s="2">
         <v>55.1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="M6" s="2">
         <v>46.4</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>37.700000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4">
+      <c r="K7" s="4">
         <v>55.1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>56.1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>56.2</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4">
+      <c r="K8" s="4">
         <v>53.1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="L8" s="2">
         <v>43.5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="M8" s="2">
         <v>39.799999999999997</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="4">
+      <c r="K9" s="4">
         <v>54.8</v>
       </c>
-      <c r="H9" s="2">
+      <c r="L9" s="2">
         <v>56</v>
       </c>
-      <c r="I9" s="2">
+      <c r="M9" s="2">
         <v>50.5</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4">
+      <c r="K10" s="4">
         <v>50</v>
       </c>
-      <c r="H10" s="2">
+      <c r="L10" s="2">
         <v>44.6</v>
       </c>
-      <c r="I10" s="2">
+      <c r="M10" s="2">
         <v>47.8</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4">
+      <c r="K11" s="4">
         <v>55.3</v>
       </c>
-      <c r="H11" s="2">
+      <c r="L11" s="2">
         <v>59.5</v>
       </c>
-      <c r="I11" s="2">
+      <c r="M11" s="2">
         <v>59.6</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4">
+      <c r="K12" s="4">
         <v>57</v>
       </c>
-      <c r="H12" s="2">
+      <c r="L12" s="2">
         <v>59.1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="M12" s="2">
         <v>62.3</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13">
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4">
+      <c r="K13" s="4">
         <v>55.4</v>
       </c>
-      <c r="H13" s="2">
+      <c r="L13" s="2">
         <v>48.7</v>
       </c>
-      <c r="I13" s="2">
+      <c r="M13" s="2">
         <v>51.2</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="J14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4">
+      <c r="K14" s="4">
         <v>58.8</v>
       </c>
-      <c r="H14" s="2">
+      <c r="L14" s="2">
         <v>64.3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="M14" s="2">
         <v>63.5</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="4">
+      <c r="K15" s="4">
         <v>51</v>
       </c>
-      <c r="H15" s="2">
+      <c r="L15" s="2">
         <v>50.9</v>
       </c>
-      <c r="I15" s="2">
+      <c r="M15" s="2">
         <v>46.1</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <v>44.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="4">
+      <c r="K16" s="4">
         <v>57.8</v>
       </c>
-      <c r="H16" s="2">
+      <c r="L16" s="2">
         <v>56.4</v>
       </c>
-      <c r="I16" s="2">
+      <c r="M16" s="2">
         <v>60.2</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>55.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
+      <c r="J17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="4">
+      <c r="K17" s="4">
         <v>58.8</v>
       </c>
-      <c r="H17" s="2">
+      <c r="L17" s="2">
         <v>57.9</v>
       </c>
-      <c r="I17" s="2">
+      <c r="M17" s="2">
         <v>51.1</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
+      <c r="J18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="4">
+      <c r="K18" s="4">
         <v>54.6</v>
       </c>
-      <c r="H18" s="2">
+      <c r="L18" s="2">
         <v>59.9</v>
       </c>
-      <c r="I18" s="2">
+      <c r="M18" s="2">
         <v>58.9</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
+      <c r="J19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="4">
+      <c r="K19" s="4">
         <v>56</v>
       </c>
-      <c r="H19" s="2">
+      <c r="L19" s="2">
         <v>52.3</v>
       </c>
-      <c r="I19" s="2">
+      <c r="M19" s="2">
         <v>43.8</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="4">
+      <c r="K20" s="4">
         <v>52.7</v>
       </c>
-      <c r="H20" s="2">
+      <c r="L20" s="2">
         <v>50.1</v>
       </c>
-      <c r="I20" s="2">
+      <c r="M20" s="2">
         <v>48.6</v>
       </c>
-      <c r="J20">
+      <c r="N20">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="4">
+      <c r="K21" s="4">
         <v>49.1</v>
       </c>
-      <c r="H21" s="2">
+      <c r="L21" s="2">
         <v>48.7</v>
       </c>
-      <c r="I21" s="2">
+      <c r="M21" s="2">
         <v>47.1</v>
       </c>
-      <c r="J21">
+      <c r="N21">
         <v>37.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="G22">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="4">
+      <c r="K22" s="4">
         <v>52.9</v>
       </c>
-      <c r="H22" s="2">
+      <c r="L22" s="2">
         <v>55.2</v>
       </c>
-      <c r="I22" s="2">
+      <c r="M22" s="2">
         <v>55.1</v>
       </c>
-      <c r="J22">
+      <c r="N22">
         <v>46.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" t="s">
         <v>7</v>
       </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="4">
+      <c r="K23" s="4">
         <v>42.8</v>
       </c>
-      <c r="H23" s="2">
+      <c r="L23" s="2">
         <v>45.1</v>
       </c>
-      <c r="I23" s="2">
+      <c r="M23" s="2">
         <v>38.5</v>
       </c>
-      <c r="J23">
+      <c r="N23">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="4">
+      <c r="K24" s="4">
         <v>53</v>
       </c>
-      <c r="H24" s="2">
+      <c r="L24" s="2">
         <v>54.3</v>
       </c>
-      <c r="I24" s="2">
+      <c r="M24" s="2">
         <v>49.4</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="G25">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="H25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="4">
+      <c r="K25" s="4">
         <v>50.9</v>
       </c>
-      <c r="H25" s="2">
+      <c r="L25" s="2">
         <v>47.9</v>
       </c>
-      <c r="I25" s="2">
+      <c r="M25" s="2">
         <v>50.6</v>
       </c>
-      <c r="J25">
+      <c r="N25">
         <v>34.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C26">
+      <c r="G26">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>7</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="s">
+      <c r="J26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="4">
+      <c r="K26" s="4">
         <v>52.9</v>
       </c>
-      <c r="H26" s="2">
+      <c r="L26" s="2">
         <v>53.8</v>
       </c>
-      <c r="I26" s="2">
+      <c r="M26" s="2">
         <v>57.1</v>
       </c>
-      <c r="J26">
+      <c r="N26">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C27">
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
+      <c r="H27" t="s">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
+      <c r="I27" t="s">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
+      <c r="J27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="4">
+      <c r="K27" s="4">
         <v>54.8</v>
       </c>
-      <c r="H27" s="2">
+      <c r="L27" s="2">
         <v>56.7</v>
       </c>
-      <c r="I27" s="2">
+      <c r="M27" s="2">
         <v>55.2</v>
       </c>
-      <c r="J27">
+      <c r="N27">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C28">
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H28" t="s">
         <v>7</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
+      <c r="J28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="4">
+      <c r="K28" s="4">
         <v>49.1</v>
       </c>
-      <c r="H28" s="2">
+      <c r="L28" s="2">
         <v>54.4</v>
       </c>
-      <c r="I28" s="2">
+      <c r="M28" s="2">
         <v>50</v>
       </c>
-      <c r="J28">
+      <c r="N28">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C29">
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H29" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
+      <c r="J29" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="4">
+      <c r="K29" s="4">
         <v>49.8</v>
       </c>
-      <c r="H29" s="2">
+      <c r="L29" s="2">
         <v>53.7</v>
       </c>
-      <c r="I29" s="2">
+      <c r="M29" s="2">
         <v>50.8</v>
       </c>
-      <c r="J29">
+      <c r="N29">
         <v>47.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C30">
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>14</v>
       </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="4">
+      <c r="K30" s="4">
         <v>58.9</v>
       </c>
-      <c r="H30" s="2">
+      <c r="L30" s="2">
         <v>52.4</v>
       </c>
-      <c r="I30" s="2">
+      <c r="M30" s="2">
         <v>51.9</v>
       </c>
-      <c r="J30">
+      <c r="N30">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C31">
+      <c r="G31">
         <v>5</v>
       </c>
-      <c r="D31" t="s">
+      <c r="H31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="4">
+      <c r="K31" s="4">
         <v>56.5</v>
       </c>
-      <c r="H31" s="2">
+      <c r="L31" s="2">
         <v>50.9</v>
       </c>
-      <c r="I31" s="2">
+      <c r="M31" s="2">
         <v>52.2</v>
       </c>
-      <c r="J31">
+      <c r="N31">
         <v>37.700000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C32">
+      <c r="G32">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="H32" t="s">
         <v>14</v>
       </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="4">
+      <c r="K32" s="4">
         <v>54</v>
       </c>
-      <c r="H32" s="2">
+      <c r="L32" s="2">
         <v>63.9</v>
       </c>
-      <c r="I32" s="2">
+      <c r="M32" s="2">
         <v>56.4</v>
       </c>
-      <c r="J32">
+      <c r="N32">
         <v>44.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C33">
+      <c r="G33">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
+      <c r="H33" t="s">
         <v>14</v>
       </c>
-      <c r="E33" t="s">
+      <c r="I33" t="s">
         <v>17</v>
       </c>
-      <c r="F33" t="s">
+      <c r="J33" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="4">
+      <c r="K33" s="4">
         <v>53.6</v>
       </c>
-      <c r="H33" s="2">
+      <c r="L33" s="2">
         <v>58.5</v>
       </c>
-      <c r="I33" s="2">
+      <c r="M33" s="2">
         <v>56.4</v>
       </c>
-      <c r="J33">
+      <c r="N33">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C34">
+      <c r="G34">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="s">
+      <c r="I34" t="s">
         <v>8</v>
       </c>
-      <c r="F34" t="s">
+      <c r="J34" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="4">
+      <c r="K34" s="4">
         <v>49.3</v>
       </c>
-      <c r="H34" s="2">
+      <c r="L34" s="2">
         <v>51.5</v>
       </c>
-      <c r="I34" s="2">
+      <c r="M34" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="J34">
+      <c r="N34">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C35">
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="D35" t="s">
+      <c r="H35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" t="s">
+      <c r="I35" t="s">
         <v>8</v>
       </c>
-      <c r="F35" t="s">
+      <c r="J35" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="4">
+      <c r="K35" s="4">
         <v>56.3</v>
       </c>
-      <c r="H35" s="2">
+      <c r="L35" s="2">
         <v>53.2</v>
       </c>
-      <c r="I35" s="2">
+      <c r="M35" s="2">
         <v>46</v>
       </c>
-      <c r="J35">
+      <c r="N35">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C36">
+      <c r="G36">
         <v>5</v>
       </c>
-      <c r="D36" t="s">
+      <c r="H36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
         <v>8</v>
       </c>
-      <c r="F36" t="s">
+      <c r="J36" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="4">
+      <c r="K36" s="4">
         <v>46.9</v>
       </c>
-      <c r="H36" s="2">
+      <c r="L36" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="I36" s="2">
+      <c r="M36" s="2">
         <v>35.200000000000003</v>
       </c>
-      <c r="J36">
+      <c r="N36">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C37">
+      <c r="G37">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
+      <c r="H37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
+      <c r="I37" t="s">
         <v>8</v>
       </c>
-      <c r="F37" t="s">
+      <c r="J37" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="4">
+      <c r="K37" s="4">
         <v>46.9</v>
       </c>
-      <c r="H37" s="2">
+      <c r="L37" s="2">
         <v>45.6</v>
       </c>
-      <c r="I37" s="2">
+      <c r="M37" s="2">
         <v>35.299999999999997</v>
       </c>
-      <c r="J37">
+      <c r="N37">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C38">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
+      <c r="H38" t="s">
         <v>14</v>
       </c>
-      <c r="E38" t="s">
+      <c r="I38" t="s">
         <v>8</v>
       </c>
-      <c r="F38" t="s">
+      <c r="J38" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="4">
+      <c r="K38" s="4">
         <v>52.8</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>53.2</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>48.3</v>
       </c>
-      <c r="J38">
+      <c r="N38">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C39">
+      <c r="G39">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
+      <c r="H39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="s">
+      <c r="I39" t="s">
         <v>8</v>
       </c>
-      <c r="F39" t="s">
+      <c r="J39" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="4">
+      <c r="K39" s="4">
         <v>54.5</v>
       </c>
-      <c r="H39" s="2">
+      <c r="L39" s="2">
         <v>57.8</v>
       </c>
-      <c r="I39" s="2">
+      <c r="M39" s="2">
         <v>56.5</v>
       </c>
-      <c r="J39">
+      <c r="N39">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C40">
+      <c r="G40">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
+      <c r="H40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="s">
+      <c r="I40" t="s">
         <v>17</v>
       </c>
-      <c r="F40" t="s">
+      <c r="J40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="4">
+      <c r="K40" s="4">
         <v>56.2</v>
       </c>
-      <c r="H40" s="2">
+      <c r="L40" s="2">
         <v>54.9</v>
       </c>
-      <c r="I40" s="2">
+      <c r="M40" s="2">
         <v>56.9</v>
       </c>
-      <c r="J40">
+      <c r="N40">
         <v>54.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C41">
+      <c r="G41">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
+      <c r="H41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="4">
+      <c r="K41" s="4">
         <v>59.2</v>
       </c>
-      <c r="H41" s="2">
+      <c r="L41" s="2">
         <v>50.7</v>
       </c>
-      <c r="I41" s="2">
+      <c r="M41" s="2">
         <v>51.9</v>
       </c>
-      <c r="J41">
+      <c r="N41">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C42">
+      <c r="G42">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
+      <c r="H42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="4">
+      <c r="K42" s="4">
         <v>50.1</v>
       </c>
-      <c r="H42" s="2">
+      <c r="L42" s="2">
         <v>42.2</v>
       </c>
-      <c r="I42" s="2">
+      <c r="M42" s="2">
         <v>43.6</v>
       </c>
-      <c r="J42">
+      <c r="N42">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C43">
+      <c r="G43">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
+      <c r="H43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="4">
+      <c r="K43" s="4">
         <v>44</v>
       </c>
-      <c r="H43" s="2">
+      <c r="L43" s="2">
         <v>49.2</v>
       </c>
-      <c r="I43" s="2">
+      <c r="M43" s="2">
         <v>49.2</v>
       </c>
-      <c r="J43">
+      <c r="N43">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C44">
+      <c r="G44">
         <v>7</v>
       </c>
-      <c r="D44" t="s">
+      <c r="H44" t="s">
         <v>14</v>
       </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="4">
+      <c r="K44" s="4">
         <v>54</v>
       </c>
-      <c r="H44" s="2">
+      <c r="L44" s="2">
         <v>43.8</v>
       </c>
-      <c r="I44" s="2">
+      <c r="M44" s="2">
         <v>60.4</v>
       </c>
-      <c r="J44">
+      <c r="N44">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C45">
+      <c r="G45">
         <v>7</v>
       </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
         <v>14</v>
       </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="4">
+      <c r="K45" s="4">
         <v>53.5</v>
       </c>
-      <c r="H45" s="2">
+      <c r="L45" s="2">
         <v>53.2</v>
       </c>
-      <c r="I45" s="2">
+      <c r="M45" s="2">
         <v>48.6</v>
       </c>
-      <c r="J45">
+      <c r="N45">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="G46">
         <v>7</v>
       </c>
-      <c r="D46" t="s">
+      <c r="H46" t="s">
         <v>14</v>
       </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="4">
+      <c r="K46" s="4">
         <v>56.7</v>
       </c>
-      <c r="H46" s="2">
+      <c r="L46" s="2">
         <v>57.8</v>
       </c>
-      <c r="I46" s="2">
+      <c r="M46" s="2">
         <v>46.3</v>
       </c>
-      <c r="J46">
+      <c r="N46">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C47">
+      <c r="G47">
         <v>7</v>
       </c>
-      <c r="D47" t="s">
+      <c r="H47" t="s">
         <v>14</v>
       </c>
-      <c r="E47" t="s">
+      <c r="I47" t="s">
         <v>17</v>
       </c>
-      <c r="F47" t="s">
+      <c r="J47" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="4">
+      <c r="K47" s="4">
         <v>55.8</v>
       </c>
-      <c r="H47" s="2">
+      <c r="L47" s="2">
         <v>54.9</v>
       </c>
-      <c r="I47" s="2">
+      <c r="M47" s="2">
         <v>57.1</v>
       </c>
-      <c r="J47">
+      <c r="N47">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C48">
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="D48" t="s">
+      <c r="H48" t="s">
         <v>14</v>
       </c>
-      <c r="E48" t="s">
+      <c r="I48" t="s">
         <v>8</v>
       </c>
-      <c r="F48" t="s">
+      <c r="J48" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="4">
+      <c r="K48" s="4">
         <v>51.6</v>
       </c>
-      <c r="H48" s="2">
+      <c r="L48" s="2">
         <v>50.7</v>
       </c>
-      <c r="I48" s="2">
+      <c r="M48" s="2">
         <v>55.8</v>
       </c>
-      <c r="J48">
+      <c r="N48">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C49">
+      <c r="G49">
         <v>7</v>
       </c>
-      <c r="D49" t="s">
+      <c r="H49" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
+      <c r="I49" t="s">
         <v>8</v>
       </c>
-      <c r="F49" t="s">
+      <c r="J49" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="4">
+      <c r="K49" s="4">
         <v>57</v>
       </c>
-      <c r="H49" s="2">
+      <c r="L49" s="2">
         <v>42.2</v>
       </c>
-      <c r="I49" s="2">
+      <c r="M49" s="2">
         <v>44.1</v>
       </c>
-      <c r="J49">
+      <c r="N49">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="G50">
         <v>7</v>
       </c>
-      <c r="D50" t="s">
+      <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="E50" t="s">
+      <c r="I50" t="s">
         <v>8</v>
       </c>
-      <c r="F50" t="s">
+      <c r="J50" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="4">
+      <c r="K50" s="4">
         <v>54.3</v>
       </c>
-      <c r="H50" s="2">
+      <c r="L50" s="2">
         <v>49.2</v>
       </c>
-      <c r="I50" s="2">
+      <c r="M50" s="2">
         <v>45</v>
       </c>
-      <c r="J50">
+      <c r="N50">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C51">
+      <c r="G51">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
+      <c r="H51" t="s">
         <v>14</v>
       </c>
-      <c r="E51" t="s">
+      <c r="I51" t="s">
         <v>8</v>
       </c>
-      <c r="F51" t="s">
+      <c r="J51" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="4">
+      <c r="K51" s="4">
         <v>50.7</v>
       </c>
-      <c r="H51" s="2">
+      <c r="L51" s="2">
         <v>55.6</v>
       </c>
-      <c r="I51" s="2">
+      <c r="M51" s="2">
         <v>47.7</v>
       </c>
-      <c r="J51">
+      <c r="N51">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C52">
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
+      <c r="H52" t="s">
         <v>14</v>
       </c>
-      <c r="E52" t="s">
+      <c r="I52" t="s">
         <v>8</v>
       </c>
-      <c r="F52" t="s">
+      <c r="J52" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="4">
+      <c r="K52" s="4">
         <v>52.1</v>
       </c>
-      <c r="H52" s="2">
+      <c r="L52" s="2">
         <v>55</v>
       </c>
-      <c r="I52" s="2">
+      <c r="M52" s="2">
         <v>53.9</v>
       </c>
-      <c r="J52">
+      <c r="N52">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C53">
+      <c r="G53">
         <v>8</v>
       </c>
-      <c r="D53" t="s">
+      <c r="H53" t="s">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
+      <c r="I53" t="s">
         <v>8</v>
       </c>
-      <c r="F53" t="s">
+      <c r="J53" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="4">
+      <c r="K53" s="4">
         <v>51.3</v>
       </c>
-      <c r="H53" s="2">
+      <c r="L53" s="2">
         <v>46.4</v>
       </c>
-      <c r="I53" s="2">
+      <c r="M53" s="2">
         <v>38.700000000000003</v>
       </c>
-      <c r="J53">
+      <c r="N53">
         <v>32.200000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C54">
+      <c r="G54">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
+      <c r="H54" t="s">
         <v>14</v>
       </c>
-      <c r="E54" t="s">
+      <c r="I54" t="s">
         <v>17</v>
       </c>
-      <c r="F54" t="s">
+      <c r="J54" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="4">
+      <c r="K54" s="4">
         <v>52.7</v>
       </c>
-      <c r="H54" s="2">
+      <c r="L54" s="2">
         <v>59.9</v>
       </c>
-      <c r="I54" s="2">
+      <c r="M54" s="2">
         <v>54.3</v>
       </c>
-      <c r="J54">
+      <c r="N54">
         <v>48.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C55">
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="D55" t="s">
+      <c r="H55" t="s">
         <v>14</v>
       </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="4">
+      <c r="K55" s="4">
         <v>59.9</v>
       </c>
-      <c r="H55" s="2">
+      <c r="L55" s="2">
         <v>52.7</v>
       </c>
-      <c r="I55" s="2">
+      <c r="M55" s="2">
         <v>60.5</v>
       </c>
-      <c r="J55">
+      <c r="N55">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C56">
+      <c r="G56">
         <v>8</v>
       </c>
-      <c r="D56" t="s">
+      <c r="H56" t="s">
         <v>14</v>
       </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="4">
+      <c r="K56" s="4">
         <v>51.4</v>
       </c>
-      <c r="H56" s="2">
+      <c r="L56" s="2">
         <v>59.6</v>
       </c>
-      <c r="I56" s="2">
+      <c r="M56" s="2">
         <v>43.2</v>
       </c>
-      <c r="J56">
+      <c r="N56">
         <v>37.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C57">
+      <c r="G57">
         <v>8</v>
       </c>
-      <c r="D57" t="s">
+      <c r="H57" t="s">
         <v>14</v>
       </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="4">
+      <c r="K57" s="4">
         <v>58.4</v>
       </c>
-      <c r="H57" s="2">
+      <c r="L57" s="2">
         <v>58.4</v>
       </c>
-      <c r="I57" s="2">
+      <c r="M57" s="2">
         <v>41</v>
       </c>
-      <c r="J57">
+      <c r="N57">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="G58">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
+      <c r="H58" t="s">
         <v>15</v>
       </c>
-      <c r="E58" t="s">
+      <c r="I58" t="s">
         <v>8</v>
       </c>
-      <c r="F58" t="s">
+      <c r="J58" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="4">
+      <c r="K58" s="4">
         <v>57.6</v>
       </c>
-      <c r="H58" s="2">
+      <c r="L58" s="2">
         <v>54.4</v>
       </c>
-      <c r="I58" s="2">
+      <c r="M58" s="2">
         <v>51.2</v>
       </c>
-      <c r="J58">
+      <c r="N58">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C59">
+      <c r="G59">
         <v>9</v>
       </c>
-      <c r="D59" t="s">
+      <c r="H59" t="s">
         <v>15</v>
       </c>
-      <c r="E59" t="s">
+      <c r="I59" t="s">
         <v>8</v>
       </c>
-      <c r="F59" t="s">
+      <c r="J59" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="4">
+      <c r="K59" s="4">
         <v>56.1</v>
       </c>
-      <c r="H59" s="2">
+      <c r="L59" s="2">
         <v>52.1</v>
       </c>
-      <c r="I59" s="2">
+      <c r="M59" s="2">
         <v>55.4</v>
       </c>
-      <c r="J59">
+      <c r="N59">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C60">
+      <c r="G60">
         <v>9</v>
       </c>
-      <c r="D60" t="s">
+      <c r="H60" t="s">
         <v>15</v>
       </c>
-      <c r="E60" t="s">
+      <c r="I60" t="s">
         <v>8</v>
       </c>
-      <c r="F60" t="s">
+      <c r="J60" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="4">
+      <c r="K60" s="4">
         <v>56.2</v>
       </c>
-      <c r="H60" s="2">
+      <c r="L60" s="2">
         <v>56.9</v>
       </c>
-      <c r="I60" s="2">
+      <c r="M60" s="2">
         <v>48.4</v>
       </c>
-      <c r="J60">
+      <c r="N60">
         <v>42.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C61">
+      <c r="G61">
         <v>9</v>
       </c>
-      <c r="D61" t="s">
+      <c r="H61" t="s">
         <v>15</v>
       </c>
-      <c r="E61" t="s">
+      <c r="I61" t="s">
         <v>17</v>
       </c>
-      <c r="F61" t="s">
+      <c r="J61" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="4">
+      <c r="K61" s="4">
         <v>50.2</v>
       </c>
-      <c r="H61" s="2">
+      <c r="L61" s="2">
         <v>54.9</v>
       </c>
-      <c r="I61" s="2">
+      <c r="M61" s="2">
         <v>51.9</v>
       </c>
-      <c r="J61">
+      <c r="N61">
         <v>45.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C62">
+      <c r="G62">
         <v>9</v>
       </c>
-      <c r="D62" t="s">
+      <c r="H62" t="s">
         <v>15</v>
       </c>
-      <c r="E62" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="4">
+      <c r="K62" s="4">
         <v>53.2</v>
       </c>
-      <c r="H62" s="2">
+      <c r="L62" s="2">
         <v>42.6</v>
       </c>
-      <c r="I62" s="2">
+      <c r="M62" s="2">
         <v>33.4</v>
       </c>
-      <c r="J62">
+      <c r="N62">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C63">
+      <c r="G63">
         <v>9</v>
       </c>
-      <c r="D63" t="s">
+      <c r="H63" t="s">
         <v>15</v>
       </c>
-      <c r="E63" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="4">
+      <c r="K63" s="4">
         <v>49.9</v>
       </c>
-      <c r="H63" s="2">
+      <c r="L63" s="2">
         <v>40.5</v>
       </c>
-      <c r="I63" s="2">
+      <c r="M63" s="2">
         <v>35.4</v>
       </c>
-      <c r="J63">
+      <c r="N63">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C64">
+      <c r="G64">
         <v>9</v>
       </c>
-      <c r="D64" t="s">
+      <c r="H64" t="s">
         <v>15</v>
       </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="4">
+      <c r="K64" s="4">
         <v>51.4</v>
       </c>
-      <c r="H64" s="2">
+      <c r="L64" s="2">
         <v>51.1</v>
       </c>
-      <c r="I64" s="2">
+      <c r="M64" s="2">
         <v>39.299999999999997</v>
       </c>
-      <c r="J64">
+      <c r="N64">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C65">
+      <c r="G65">
         <v>10</v>
       </c>
-      <c r="D65" t="s">
+      <c r="H65" t="s">
         <v>15</v>
       </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="4">
+      <c r="K65" s="4">
         <v>48.2</v>
       </c>
-      <c r="H65" s="2">
+      <c r="L65" s="2">
         <v>48.9</v>
       </c>
-      <c r="I65" s="2">
+      <c r="M65" s="2">
         <v>46.3</v>
       </c>
-      <c r="J65">
+      <c r="N65">
         <v>33</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C66">
+      <c r="G66">
         <v>10</v>
       </c>
-      <c r="D66" t="s">
+      <c r="H66" t="s">
         <v>15</v>
       </c>
-      <c r="E66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="4">
+      <c r="K66" s="4">
         <v>47</v>
       </c>
-      <c r="H66" s="2">
+      <c r="L66" s="2">
         <v>44.6</v>
       </c>
-      <c r="I66" s="2">
+      <c r="M66" s="2">
         <v>38.700000000000003</v>
       </c>
-      <c r="J66">
+      <c r="N66">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C67">
+      <c r="G67">
         <v>10</v>
       </c>
-      <c r="D67" t="s">
+      <c r="H67" t="s">
         <v>15</v>
       </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="4">
+      <c r="K67" s="4">
         <v>48.9</v>
       </c>
-      <c r="H67" s="2">
+      <c r="L67" s="2">
         <v>56.9</v>
       </c>
-      <c r="I67" s="2">
+      <c r="M67" s="2">
         <v>54.1</v>
       </c>
-      <c r="J67">
+      <c r="N67">
         <v>59.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C68">
+      <c r="G68">
         <v>10</v>
       </c>
-      <c r="D68" t="s">
+      <c r="H68" t="s">
         <v>15</v>
       </c>
-      <c r="E68" t="s">
+      <c r="I68" t="s">
         <v>17</v>
       </c>
-      <c r="F68" t="s">
+      <c r="J68" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="4">
+      <c r="K68" s="4">
         <v>58.1</v>
       </c>
-      <c r="H68" s="2">
+      <c r="L68" s="2">
         <v>50.9</v>
       </c>
-      <c r="I68" s="2">
+      <c r="M68" s="2">
         <v>52.9</v>
       </c>
-      <c r="J68">
+      <c r="N68">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C69">
+      <c r="G69">
         <v>10</v>
       </c>
-      <c r="D69" t="s">
+      <c r="H69" t="s">
         <v>15</v>
       </c>
-      <c r="E69" t="s">
+      <c r="I69" t="s">
         <v>8</v>
       </c>
-      <c r="F69" t="s">
+      <c r="J69" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="4">
+      <c r="K69" s="4">
         <v>58.5</v>
       </c>
-      <c r="H69" s="2">
+      <c r="L69" s="2">
         <v>58.7</v>
       </c>
-      <c r="I69" s="2">
+      <c r="M69" s="2">
         <v>55.9</v>
       </c>
-      <c r="J69">
+      <c r="N69">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C70">
+      <c r="G70">
         <v>10</v>
       </c>
-      <c r="D70" t="s">
+      <c r="H70" t="s">
         <v>15</v>
       </c>
-      <c r="E70" t="s">
+      <c r="I70" t="s">
         <v>8</v>
       </c>
-      <c r="F70" t="s">
+      <c r="J70" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="4">
+      <c r="K70" s="4">
         <v>59.9</v>
       </c>
-      <c r="H70" s="2">
+      <c r="L70" s="2">
         <v>56.4</v>
       </c>
-      <c r="I70" s="2">
+      <c r="M70" s="2">
         <v>56.6</v>
       </c>
-      <c r="J70">
+      <c r="N70">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C71">
+      <c r="G71">
         <v>10</v>
       </c>
-      <c r="D71" t="s">
+      <c r="H71" t="s">
         <v>15</v>
       </c>
-      <c r="E71" t="s">
+      <c r="I71" t="s">
         <v>8</v>
       </c>
-      <c r="F71" t="s">
+      <c r="J71" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="4">
+      <c r="K71" s="4">
         <v>57.4</v>
       </c>
-      <c r="H71" s="2">
+      <c r="L71" s="2">
         <v>54.6</v>
       </c>
-      <c r="I71" s="2">
+      <c r="M71" s="2">
         <v>49.9</v>
       </c>
-      <c r="J71">
+      <c r="N71">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C72">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
         <v>15</v>
       </c>
-      <c r="E72" t="s">
+      <c r="I72" t="s">
         <v>8</v>
       </c>
-      <c r="F72" t="s">
+      <c r="J72" t="s">
         <v>22</v>
       </c>
-      <c r="G72" s="4">
+      <c r="K72" s="4">
         <v>48.9</v>
       </c>
-      <c r="H72" s="2">
+      <c r="L72" s="2">
         <v>38.9</v>
       </c>
-      <c r="I72" s="2">
+      <c r="M72" s="2">
         <v>38.4</v>
       </c>
-      <c r="J72">
+      <c r="N72">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C73">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="G73">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
         <v>15</v>
       </c>
-      <c r="E73" t="s">
+      <c r="I73" t="s">
         <v>8</v>
       </c>
-      <c r="F73" t="s">
+      <c r="J73" t="s">
         <v>22</v>
       </c>
-      <c r="G73" s="4">
+      <c r="K73" s="4">
         <v>49.4</v>
       </c>
-      <c r="H73" s="2">
+      <c r="L73" s="2">
         <v>49.7</v>
       </c>
-      <c r="I73" s="2">
+      <c r="M73" s="2">
         <v>44.8</v>
       </c>
-      <c r="J73">
+      <c r="N73">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C74">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="G74">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
         <v>15</v>
       </c>
-      <c r="E74" t="s">
+      <c r="I74" t="s">
         <v>8</v>
       </c>
-      <c r="F74" t="s">
+      <c r="J74" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="4">
+      <c r="K74" s="4">
         <v>54.7</v>
       </c>
-      <c r="H74" s="2">
+      <c r="L74" s="2">
         <v>53.1</v>
       </c>
-      <c r="I74" s="2">
+      <c r="M74" s="2">
         <v>52.9</v>
       </c>
-      <c r="J74">
+      <c r="N74">
         <v>48.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C75">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="G75">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
         <v>15</v>
       </c>
-      <c r="E75" t="s">
+      <c r="I75" t="s">
         <v>17</v>
       </c>
-      <c r="F75" t="s">
+      <c r="J75" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="4">
+      <c r="K75" s="4">
         <v>55.9</v>
       </c>
-      <c r="H75" s="2">
+      <c r="L75" s="2">
         <v>54.2</v>
       </c>
-      <c r="I75" s="2">
+      <c r="M75" s="2">
         <v>53.7</v>
       </c>
-      <c r="J75">
+      <c r="N75">
         <v>54.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C76">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="G76">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
         <v>15</v>
       </c>
-      <c r="E76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="4">
+      <c r="K76" s="4">
         <v>55.9</v>
       </c>
-      <c r="H76" s="2">
+      <c r="L76" s="2">
         <v>52.5</v>
       </c>
-      <c r="I76" s="2">
+      <c r="M76" s="2">
         <v>50.6</v>
       </c>
-      <c r="J76">
+      <c r="N76">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C77">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="G77">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
         <v>15</v>
       </c>
-      <c r="E77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="4">
+      <c r="K77" s="4">
         <v>55.3</v>
       </c>
-      <c r="H77" s="2">
+      <c r="L77" s="2">
         <v>51.9</v>
       </c>
-      <c r="I77" s="2">
+      <c r="M77" s="2">
         <v>48.4</v>
       </c>
-      <c r="J77">
+      <c r="N77">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="G78">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
         <v>15</v>
       </c>
-      <c r="E78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="4">
+      <c r="K78" s="4">
         <v>51.6</v>
       </c>
-      <c r="H78" s="2">
+      <c r="L78" s="2">
         <v>53.9</v>
       </c>
-      <c r="I78" s="2">
+      <c r="M78" s="2">
         <v>48.1</v>
       </c>
-      <c r="J78">
+      <c r="N78">
         <v>46.4</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C79">
+      <c r="G79">
         <v>12</v>
       </c>
-      <c r="D79" t="s">
+      <c r="H79" t="s">
         <v>15</v>
       </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="4">
+      <c r="K79" s="4">
         <v>53.2</v>
       </c>
-      <c r="H79" s="2">
+      <c r="L79" s="2">
         <v>51.7</v>
       </c>
-      <c r="I79" s="2">
+      <c r="M79" s="2">
         <v>49.9</v>
       </c>
-      <c r="J79">
+      <c r="N79">
         <v>48.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C80">
+      <c r="G80">
         <v>12</v>
       </c>
-      <c r="D80" t="s">
+      <c r="H80" t="s">
         <v>15</v>
       </c>
-      <c r="E80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="4">
+      <c r="K80" s="4">
         <v>46.9</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>46.2</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>39</v>
       </c>
-      <c r="J80">
+      <c r="N80">
         <v>32.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C81">
+      <c r="G81">
         <v>12</v>
       </c>
-      <c r="D81" t="s">
+      <c r="H81" t="s">
         <v>15</v>
       </c>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="4">
+      <c r="K81" s="4">
         <v>53.8</v>
       </c>
-      <c r="H81" s="2">
+      <c r="L81" s="2">
         <v>55.8</v>
       </c>
-      <c r="I81" s="2">
+      <c r="M81" s="2">
         <v>50.8</v>
       </c>
-      <c r="J81">
+      <c r="N81">
         <v>32.299999999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C82">
+      <c r="G82">
         <v>12</v>
       </c>
-      <c r="D82" t="s">
+      <c r="H82" t="s">
         <v>15</v>
       </c>
-      <c r="E82" t="s">
+      <c r="I82" t="s">
         <v>17</v>
       </c>
-      <c r="F82" t="s">
+      <c r="J82" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="4">
+      <c r="K82" s="4">
         <v>53.7</v>
       </c>
-      <c r="H82" s="2">
+      <c r="L82" s="2">
         <v>55.5</v>
       </c>
-      <c r="I82" s="2">
+      <c r="M82" s="2">
         <v>51.8</v>
       </c>
-      <c r="J82">
+      <c r="N82">
         <v>49.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C83">
+      <c r="G83">
         <v>12</v>
       </c>
-      <c r="D83" t="s">
+      <c r="H83" t="s">
         <v>15</v>
       </c>
-      <c r="E83" t="s">
+      <c r="I83" t="s">
         <v>8</v>
       </c>
-      <c r="F83" t="s">
+      <c r="J83" t="s">
         <v>22</v>
       </c>
-      <c r="G83" s="4">
+      <c r="K83" s="4">
         <v>51.3</v>
       </c>
-      <c r="H83" s="2">
+      <c r="L83" s="2">
         <v>53.1</v>
       </c>
-      <c r="I83" s="2">
+      <c r="M83" s="2">
         <v>41.8</v>
       </c>
-      <c r="J83">
+      <c r="N83">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C84">
+      <c r="G84">
         <v>12</v>
       </c>
-      <c r="D84" t="s">
+      <c r="H84" t="s">
         <v>15</v>
       </c>
-      <c r="E84" t="s">
+      <c r="I84" t="s">
         <v>8</v>
       </c>
-      <c r="F84" t="s">
+      <c r="J84" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="4">
+      <c r="K84" s="4">
         <v>48.6</v>
       </c>
-      <c r="H84" s="2">
+      <c r="L84" s="2">
         <v>48.5</v>
       </c>
-      <c r="I84" s="2">
+      <c r="M84" s="2">
         <v>45.8</v>
       </c>
-      <c r="J84">
+      <c r="N84">
         <v>32.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C85">
+      <c r="G85">
         <v>12</v>
       </c>
-      <c r="D85" t="s">
+      <c r="H85" t="s">
         <v>15</v>
       </c>
-      <c r="E85" t="s">
+      <c r="I85" t="s">
         <v>8</v>
       </c>
-      <c r="F85" t="s">
+      <c r="J85" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="4">
+      <c r="K85" s="4">
         <v>57.1</v>
       </c>
-      <c r="H85" s="2">
+      <c r="L85" s="2">
         <v>52.7</v>
       </c>
-      <c r="I85" s="2">
+      <c r="M85" s="2">
         <v>49.1</v>
       </c>
-      <c r="J85">
+      <c r="N85">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="I145" s="1"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="M145" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:I145">
     <sortCondition ref="A2:A145"/>
   </sortState>
-  <conditionalFormatting sqref="I2:I85">
+  <conditionalFormatting sqref="M2:M85">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L85">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6342,7 +8098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H85">
+  <conditionalFormatting sqref="K2:K85">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6354,7 +8110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G85">
+  <conditionalFormatting sqref="N2:N85">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6366,7 +8122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J85">
+  <conditionalFormatting sqref="O2:O85">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6389,7 +8145,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8618,6 +10374,2236 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>19.3</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>22.7</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>22.1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>27.1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>17.5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>28.5</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>26.4</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>33.4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>17.8</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>30.8</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>21.5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>7.6</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>31.5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>20.5</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>9.1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>11.7</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>12.7</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>17.5</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>11.3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>13.3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>15.1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>23.7</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>23.8</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>22.5</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>14.8</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>18.3</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32">
+        <v>22.4</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>24.8</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <v>14.8</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>9.4</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>12.8</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37">
+        <v>6.8</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>10.7</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39">
+        <v>27.5</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>15.4</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43">
+        <v>13.7</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>13.1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47">
+        <v>30.5</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48">
+        <v>17.2</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>11</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>11.8</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>23.7</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53">
+        <v>21.7</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <v>25.4</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55">
+        <v>11.9</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56">
+        <v>15.6</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>31.6</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>16.2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>13.6</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>15.3</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61">
+        <v>21.1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62">
+        <v>14.4</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63">
+        <v>12.9</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>14.3</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>14.5</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66">
+        <v>25.1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67">
+        <v>20.6</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69">
+        <v>24.8</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70">
+        <v>22.9</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71">
+        <v>18</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72">
+        <v>13.8</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73">
+        <v>12.2</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74">
+        <v>8.9</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75">
+        <v>22.8</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76">
+        <v>8.9</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>12.6</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79">
+        <v>16.5</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80">
+        <v>11.6</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>12.2</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82">
+        <v>21.2</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83">
+        <v>12.2</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84">
+        <v>20.5</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85">
+        <v>13.6</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G16"/>
   <sheetViews>
@@ -8963,7 +12949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>

--- a/mesures_Ntester_Over_Season.xlsx
+++ b/mesures_Ntester_Over_Season.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Data-Work\22_Plant_Production-CH\224_Digitalisation\Experiments\2020\SolACE\SolACE_wheat_inoculation\Data\SPAD_Meter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBC3DBA-5313-4B87-ADB5-DD223DE8DC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPAD_Meter_Meas" sheetId="1" r:id="rId1"/>
@@ -153,21 +154,6 @@
     <t>SPAD_Meter_15_06</t>
   </si>
   <si>
-    <t>14_05</t>
-  </si>
-  <si>
-    <t>28_05</t>
-  </si>
-  <si>
-    <t>03_06</t>
-  </si>
-  <si>
-    <t>15_06</t>
-  </si>
-  <si>
-    <t>30_06</t>
-  </si>
-  <si>
     <t>SPAD_Meter_30_06</t>
   </si>
   <si>
@@ -242,11 +228,26 @@
   <si>
     <t>Untreated</t>
   </si>
+  <si>
+    <t>0514</t>
+  </si>
+  <si>
+    <t>0528</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0615</t>
+  </si>
+  <si>
+    <t>0630</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -283,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -295,6 +296,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,7 +358,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -382,7 +383,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1128,7 +1129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="469750320"/>
@@ -1187,7 +1188,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="399190152"/>
@@ -1204,7 +1205,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1230,7 +1230,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1260,7 +1260,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1831,7 +1831,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1896,7 +1902,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2022,7 +2034,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2110,7 +2128,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2129,7 +2153,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vuille-dit-Bille Nicolas AGROSCOPE" refreshedDate="43992.381278125002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="84">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vuille-dit-Bille Nicolas AGROSCOPE" refreshedDate="43992.381278125002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="84" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:M85" sheet="SPAD_Meter_Meas"/>
   </cacheSource>
@@ -3113,7 +3137,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:G16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -3277,6 +3301,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -3578,38 +3605,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="5" width="11" style="5"/>
     <col min="6" max="6" width="19" style="8" customWidth="1"/>
-    <col min="11" max="11" width="21.625" customWidth="1"/>
-    <col min="12" max="12" width="22.375" customWidth="1"/>
+    <col min="11" max="11" width="21.58203125" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
     <col min="13" max="13" width="18.25" customWidth="1"/>
     <col min="14" max="14" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -3626,37 +3653,37 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="K1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>26</v>
@@ -3689,7 +3716,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3697,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>23</v>
@@ -3736,7 +3763,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3744,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>6</v>
@@ -3783,7 +3810,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3791,13 +3818,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -3830,7 +3857,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3838,13 +3865,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>10</v>
@@ -3877,7 +3904,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3885,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>19</v>
@@ -3924,7 +3951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3932,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>24</v>
@@ -3971,7 +3998,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3979,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>20</v>
@@ -4018,7 +4045,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4026,13 +4053,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
@@ -4065,7 +4092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4073,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
@@ -4112,7 +4139,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4120,13 +4147,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>16</v>
@@ -4159,7 +4186,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4167,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>24</v>
@@ -4206,7 +4233,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4214,13 +4241,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>16</v>
@@ -4253,7 +4280,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4261,13 +4288,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>25</v>
@@ -4300,7 +4327,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4308,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>21</v>
@@ -4347,7 +4374,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4355,13 +4382,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>10</v>
@@ -4394,7 +4421,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4402,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>19</v>
@@ -4441,7 +4468,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4449,13 +4476,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>16</v>
@@ -4488,7 +4515,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4496,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>12</v>
@@ -4535,7 +4562,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4543,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>26</v>
@@ -4582,7 +4609,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4590,13 +4617,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>21</v>
@@ -4629,7 +4656,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4637,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>23</v>
@@ -4676,7 +4703,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4684,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>6</v>
@@ -4723,7 +4750,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4731,13 +4758,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>13</v>
@@ -4770,7 +4797,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4778,13 +4805,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>16</v>
@@ -4817,7 +4844,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4825,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>20</v>
@@ -4864,7 +4891,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4872,13 +4899,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>13</v>
@@ -4911,7 +4938,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4919,13 +4946,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>12</v>
@@ -4958,7 +4985,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4966,13 +4993,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>13</v>
@@ -5005,7 +5032,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5013,13 +5040,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>21</v>
@@ -5052,7 +5079,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5060,13 +5087,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>20</v>
@@ -5099,7 +5126,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5107,13 +5134,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>16</v>
@@ -5146,7 +5173,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5154,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>26</v>
@@ -5193,7 +5220,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5201,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>13</v>
@@ -5240,7 +5267,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5248,13 +5275,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>23</v>
@@ -5287,7 +5314,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5295,13 +5322,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>24</v>
@@ -5334,7 +5361,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5342,13 +5369,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>6</v>
@@ -5381,7 +5408,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5389,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>21</v>
@@ -5428,7 +5455,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5436,13 +5463,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>16</v>
@@ -5475,7 +5502,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5483,13 +5510,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>6</v>
@@ -5522,7 +5549,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5530,13 +5557,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>24</v>
@@ -5569,7 +5596,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5577,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>23</v>
@@ -5616,7 +5643,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5624,13 +5651,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>26</v>
@@ -5663,7 +5690,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5671,13 +5698,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>12</v>
@@ -5710,7 +5737,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5718,13 +5745,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>10</v>
@@ -5757,7 +5784,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5765,13 +5792,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E47" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>16</v>
@@ -5804,7 +5831,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5812,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>19</v>
@@ -5851,7 +5878,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5859,13 +5886,13 @@
         <v>0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>12</v>
@@ -5898,7 +5925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5906,13 +5933,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>10</v>
@@ -5945,7 +5972,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5953,13 +5980,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>16</v>
@@ -5992,7 +6019,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6000,13 +6027,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>20</v>
@@ -6039,7 +6066,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6047,13 +6074,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>25</v>
@@ -6086,7 +6113,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6094,13 +6121,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E54" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>16</v>
@@ -6133,7 +6160,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6141,13 +6168,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>16</v>
@@ -6180,7 +6207,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6188,13 +6215,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>25</v>
@@ -6227,7 +6254,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6235,13 +6262,13 @@
         <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>19</v>
@@ -6274,7 +6301,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6282,13 +6309,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>10</v>
@@ -6321,7 +6348,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6329,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>12</v>
@@ -6368,7 +6395,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6376,13 +6403,13 @@
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E60" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>6</v>
@@ -6415,7 +6442,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6423,13 +6450,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>16</v>
@@ -6462,7 +6489,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6470,13 +6497,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>25</v>
@@ -6509,7 +6536,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6517,13 +6544,13 @@
         <v>0</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>23</v>
@@ -6556,7 +6583,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6564,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E64" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>6</v>
@@ -6603,7 +6630,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6611,13 +6638,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>13</v>
@@ -6650,7 +6677,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6658,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>24</v>
@@ -6697,7 +6724,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6705,13 +6732,13 @@
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E67" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>16</v>
@@ -6744,7 +6771,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6752,13 +6779,13 @@
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E68" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>16</v>
@@ -6791,7 +6818,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6799,13 +6826,13 @@
         <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>13</v>
@@ -6838,7 +6865,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6846,13 +6873,13 @@
         <v>0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>21</v>
@@ -6885,7 +6912,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6893,13 +6920,13 @@
         <v>0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>20</v>
@@ -6932,7 +6959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6940,13 +6967,13 @@
         <v>0</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E72" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>23</v>
@@ -6979,7 +7006,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6987,13 +7014,13 @@
         <v>0</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E73" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>26</v>
@@ -7026,7 +7053,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -7034,13 +7061,13 @@
         <v>0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>19</v>
@@ -7073,7 +7100,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -7081,13 +7108,13 @@
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E75" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>16</v>
@@ -7120,7 +7147,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -7128,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>20</v>
@@ -7167,7 +7194,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -7175,13 +7202,13 @@
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>10</v>
@@ -7214,7 +7241,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -7222,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>19</v>
@@ -7261,7 +7288,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -7269,13 +7296,13 @@
         <v>0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>21</v>
@@ -7308,7 +7335,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -7316,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E80" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>26</v>
@@ -7355,7 +7382,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -7363,13 +7390,13 @@
         <v>0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>12</v>
@@ -7402,7 +7429,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -7410,13 +7437,13 @@
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E82" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>16</v>
@@ -7449,7 +7476,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7457,13 +7484,13 @@
         <v>0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>24</v>
@@ -7496,7 +7523,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -7504,13 +7531,13 @@
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>25</v>
@@ -7543,7 +7570,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7551,13 +7578,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E85" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>16</v>
@@ -7590,7 +7617,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -7598,7 +7625,7 @@
       <c r="E86" s="3"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -7606,7 +7633,7 @@
       <c r="E87" s="3"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -7614,7 +7641,7 @@
       <c r="E88" s="3"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -7622,7 +7649,7 @@
       <c r="E89" s="3"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -7630,7 +7657,7 @@
       <c r="E90" s="3"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -7638,7 +7665,7 @@
       <c r="E91" s="3"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -7646,7 +7673,7 @@
       <c r="E92" s="3"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -7654,7 +7681,7 @@
       <c r="E93" s="3"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -7662,7 +7689,7 @@
       <c r="E94" s="3"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -7670,7 +7697,7 @@
       <c r="E95" s="3"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -7678,7 +7705,7 @@
       <c r="E96" s="3"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -7686,7 +7713,7 @@
       <c r="E97" s="3"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -7694,7 +7721,7 @@
       <c r="E98" s="3"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -7702,7 +7729,7 @@
       <c r="E99" s="3"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -7710,7 +7737,7 @@
       <c r="E100" s="3"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -7718,7 +7745,7 @@
       <c r="E101" s="3"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -7726,7 +7753,7 @@
       <c r="E102" s="3"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -7734,7 +7761,7 @@
       <c r="E103" s="3"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -7742,7 +7769,7 @@
       <c r="E104" s="3"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -7750,7 +7777,7 @@
       <c r="E105" s="3"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -7758,7 +7785,7 @@
       <c r="E106" s="3"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -7766,7 +7793,7 @@
       <c r="E107" s="3"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -7774,7 +7801,7 @@
       <c r="E108" s="3"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -7782,7 +7809,7 @@
       <c r="E109" s="3"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -7790,7 +7817,7 @@
       <c r="E110" s="3"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -7798,7 +7825,7 @@
       <c r="E111" s="3"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -7806,7 +7833,7 @@
       <c r="E112" s="3"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -7814,7 +7841,7 @@
       <c r="E113" s="3"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -7822,7 +7849,7 @@
       <c r="E114" s="3"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -7830,7 +7857,7 @@
       <c r="E115" s="3"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -7838,7 +7865,7 @@
       <c r="E116" s="3"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -7846,7 +7873,7 @@
       <c r="E117" s="3"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -7854,7 +7881,7 @@
       <c r="E118" s="3"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -7862,7 +7889,7 @@
       <c r="E119" s="3"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -7870,7 +7897,7 @@
       <c r="E120" s="3"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7878,7 +7905,7 @@
       <c r="E121" s="3"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7886,7 +7913,7 @@
       <c r="E122" s="3"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7894,7 +7921,7 @@
       <c r="E123" s="3"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7902,7 +7929,7 @@
       <c r="E124" s="3"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7910,7 +7937,7 @@
       <c r="E125" s="3"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7918,7 +7945,7 @@
       <c r="E126" s="3"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7926,7 +7953,7 @@
       <c r="E127" s="3"/>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7934,7 +7961,7 @@
       <c r="E128" s="3"/>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7942,7 +7969,7 @@
       <c r="E129" s="3"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7950,7 +7977,7 @@
       <c r="E130" s="3"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7958,7 +7985,7 @@
       <c r="E131" s="3"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7966,7 +7993,7 @@
       <c r="E132" s="3"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7974,7 +8001,7 @@
       <c r="E133" s="3"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7982,7 +8009,7 @@
       <c r="E134" s="3"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7990,7 +8017,7 @@
       <c r="E135" s="3"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7998,7 +8025,7 @@
       <c r="E136" s="3"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -8006,7 +8033,7 @@
       <c r="E137" s="3"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -8014,7 +8041,7 @@
       <c r="E138" s="3"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -8022,7 +8049,7 @@
       <c r="E139" s="3"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -8030,7 +8057,7 @@
       <c r="E140" s="3"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -8038,7 +8065,7 @@
       <c r="E141" s="3"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -8046,7 +8073,7 @@
       <c r="E142" s="3"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -8054,7 +8081,7 @@
       <c r="E143" s="3"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -8062,7 +8089,7 @@
       <c r="E144" s="3"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -8071,7 +8098,7 @@
       <c r="M145" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:I145">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I145">
     <sortCondition ref="A2:A145"/>
   </sortState>
   <conditionalFormatting sqref="M2:M85">
@@ -8141,20 +8168,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="19.25" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8180,7 +8207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8206,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8232,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8258,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8284,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8310,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8336,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8362,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8388,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8414,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8440,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8466,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8492,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8518,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8544,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8570,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8596,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8622,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8648,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8674,7 +8701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8700,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8726,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8752,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8778,7 +8805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8804,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8830,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8856,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8882,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8908,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8934,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8960,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8986,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9012,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9038,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9064,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9090,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9116,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9142,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9168,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9194,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9220,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9246,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9272,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9298,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9324,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9350,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9376,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9402,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9428,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9454,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9480,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9506,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9532,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9558,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9584,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9610,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9636,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9662,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9688,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9714,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9740,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9766,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9792,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9818,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9844,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9870,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9896,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9922,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9948,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9974,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10000,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10026,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10052,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10078,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10104,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10130,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10156,7 +10183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10182,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10208,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10234,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10260,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10286,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10312,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10338,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10365,7 +10392,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F145">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F145">
     <sortCondition ref="A2:A145"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10374,20 +10401,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10407,13 +10434,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10439,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10465,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10491,7 +10518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10517,7 +10544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10543,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10569,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10595,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10621,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10647,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10673,7 +10700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10699,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10725,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10751,7 +10778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10777,7 +10804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10803,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10829,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10855,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10881,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10907,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10933,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10959,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10985,7 +11012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11011,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11037,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11063,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11089,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11115,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11141,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11167,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11193,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11219,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11245,7 +11272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11271,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11297,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11323,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11349,7 +11376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11375,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11401,7 +11428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11427,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11453,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11479,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11505,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11531,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11557,7 +11584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11583,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11609,7 +11636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11635,7 +11662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11661,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11687,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11713,7 +11740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11739,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11765,7 +11792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11791,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11817,7 +11844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11843,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11869,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11895,7 +11922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11921,7 +11948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11947,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11973,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11999,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12025,7 +12052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12051,7 +12078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12077,7 +12104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12103,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12129,7 +12156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12155,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12181,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12207,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12233,7 +12260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12259,7 +12286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12285,7 +12312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12311,7 +12338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12337,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12363,7 +12390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12389,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12415,7 +12442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12441,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12467,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12493,7 +12520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12519,7 +12546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12545,7 +12572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12571,7 +12598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12604,25 +12631,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -12645,7 +12672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -12668,7 +12695,7 @@
         <v>5.2305069175347567</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -12691,7 +12718,7 @@
         <v>2.7732652235225577</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -12714,7 +12741,7 @@
         <v>6.5814132220975541</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -12737,7 +12764,7 @@
         <v>3.62404010279498</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -12760,7 +12787,7 @@
         <v>2.6242459234353825</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -12783,7 +12810,7 @@
         <v>3.7064358441319794</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -12806,7 +12833,7 @@
         <v>3.6983329577887991</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -12829,7 +12856,7 @@
         <v>4.6653688671600859</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -12852,7 +12879,7 @@
         <v>5.4713800818440399</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -12875,7 +12902,7 @@
         <v>7.3096283535256683</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -12898,7 +12925,7 @@
         <v>8.519487465021955</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -12921,7 +12948,7 @@
         <v>5.4301626740518341</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -12950,25 +12977,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="1" max="1" width="19.08203125" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="35.25" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="35.375" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -12991,7 +13018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -13014,7 +13041,7 @@
         <v>5.2305069175347567</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -13037,7 +13064,7 @@
         <v>2.7732652235225577</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -13060,7 +13087,7 @@
         <v>6.5814132220975541</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -13083,7 +13110,7 @@
         <v>3.62404010279498</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -13106,7 +13133,7 @@
         <v>2.6242459234353825</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -13129,7 +13156,7 @@
         <v>3.7064358441319794</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -13152,7 +13179,7 @@
         <v>3.6983329577887991</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -13175,7 +13202,7 @@
         <v>4.6653688671600859</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -13198,7 +13225,7 @@
         <v>5.4713800818440399</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -13221,7 +13248,7 @@
         <v>7.3096283535256683</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -13244,7 +13271,7 @@
         <v>8.519487465021955</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
